--- a/tmp/五条人演出相关内容整理.xlsx
+++ b/tmp/五条人演出相关内容整理.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c8bfe384fc59c6b/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Codeplay\githubRepositories\wutiaoreninfo.github.io\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149C08EE-722E-424D-B47A-7D13EF127E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB9FCDA-C42C-49F2-92BE-F026ED05160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,12 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长沙 岳麓区 锦绣潇湘创意园</t>
-  </si>
-  <si>
-    <t>https://video.tudou.com/v/XMTc3ODU4MzE2.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
-  </si>
-  <si>
     <t>https://www.douban.com/event/11766244/</t>
   </si>
   <si>
@@ -181,18 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐行无界【广州站】表演季</t>
-  </si>
-  <si>
-    <t>TU凸空间</t>
-  </si>
-  <si>
-    <t>https://v.youku.com/v_show/id_XMjA2MTE4OTIw.html?</t>
-  </si>
-  <si>
-    <t>https://www.douban.com/event/12153412/</t>
-  </si>
-  <si>
     <t>2010.11.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,26 +209,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://dotsub.com/view/b8ba826f-31ff-4b22-b683-f28fa7c929e5</t>
-  </si>
-  <si>
-    <t>https://dotsub.com/view/70a3035c-cbca-4854-82a3-fa0599593db9</t>
-  </si>
-  <si>
     <t>2010.12.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民谣救护车——为了佟妍的义演 </t>
-  </si>
-  <si>
     <t>广州 191space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://v.youku.com/v_show/id_XMjM4MzQ5MDc2.html?</t>
-  </si>
-  <si>
     <t>https://www.douban.com/event/13113935/</t>
   </si>
   <si>
@@ -271,16 +232,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://video.tudou.com/v/XMjI5NDk5NjM4NA==.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
-  </si>
-  <si>
     <t>城市找猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://video.tudou.com/v/XMjI5NDk5NzAyNA==.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
-  </si>
-  <si>
     <t>https://video.tudou.com/v/XMjI5NTgwMTQzMg==.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
   </si>
   <si>
@@ -298,9 +253,6 @@
   <si>
     <t>香港艺术空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.para-site.art/programme/the-real-imagination-of-xi-kang-records-public-programme-series-for-a-hundred-years-of-shame/</t>
   </si>
   <si>
     <t>对谈视频有部分音轨缺失，讲者谈及8*8事件</t>
@@ -473,12 +425,64 @@
   <si>
     <t>https://www.youtube.com/watch?v=Sx4x6Km7AA4</t>
   </si>
+  <si>
+    <t>https://video.tudou.com/v/XMTc3ODU4MzE2.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙 岳麓区 锦绣潇湘创意园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v.youku.com/v_show/id_XMjA2MTE4OTIw.html?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.douban.com/event/12153412/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐行无界【广州站】表演季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TU凸空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dotsub.com/view/b8ba826f-31ff-4b22-b683-f28fa7c929e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dotsub.com/view/70a3035c-cbca-4854-82a3-fa0599593db9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民谣救护车——为了佟妍的义演 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v.youku.com/v_show/id_XMjM4MzQ5MDc2.html?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://video.tudou.com/v/XMjI5NDk5NjM4NA==.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://video.tudou.com/v/XMjI5NDk5NzAyNA==.html?spm=a2h0k.8191414.0.0&amp;from=s1.8-1-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.para-site.art/programme/the-real-imagination-of-xi-kang-records-public-programme-series-for-a-hundred-years-of-shame/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,10 +626,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,21 +918,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.73046875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -937,7 +941,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -954,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -971,14 +975,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -988,10 +992,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
@@ -999,14 +1003,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1014,16 +1018,16 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1031,349 +1035,348 @@
         <v>24</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="B13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="D17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5" t="s">
+      <c r="B19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="E27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -1383,12 +1386,13 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
